--- a/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
+++ b/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>iRace-敏捷项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +65,46 @@
   </si>
   <si>
     <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-Arcitecture v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JBPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +460,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,26 +469,30 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -461,6 +501,18 @@
         <v>2</v>
       </c>
       <c r="H2" s="1"/>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -475,24 +527,39 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1"/>
       <c r="N4" s="1"/>
@@ -500,16 +567,16 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
+++ b/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>iRace-敏捷项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,73 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理-SprintBacklog</t>
+  </si>
+  <si>
+    <t>iRace-UserStory</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理</t>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理-ProductBacklog</t>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理-SprintPlan</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint Plan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -144,15 +211,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,133 +632,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="C2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" t="s">
+      <c r="I2" s="1"/>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="I4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="A1:A5"/>
+  <mergeCells count="4">
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="B1:B26"/>
+    <mergeCell ref="A1:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
+++ b/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>iRace-敏捷项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,57 @@
   </si>
   <si>
     <t>Sprint Plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-ER-Model&amp;Web-Prototype-0416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebPrototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-sql</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.CDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.LDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.PDM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,12 +363,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -328,6 +373,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -632,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,385 +696,475 @@
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="T3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="U3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="V3" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9" t="s">
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="O1:O4"/>
+  <mergeCells count="7">
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="B1:B26"/>
     <mergeCell ref="A1:A26"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="I1:I7"/>
+    <mergeCell ref="J4:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
+++ b/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>iRace-敏捷项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iRace-ER-Model&amp;Web-Prototype-0416</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,15 +210,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.CDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.LDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.PDM</t>
+    <t>产品测试基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-SP2-测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI for Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP2 v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-Model-0419</t>
+  </si>
+  <si>
+    <t>iRace-SP2-测试报告 v1.0</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-Model&amp;Web-Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-ER-Model&amp;Web-Prototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -357,11 +423,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -373,10 +452,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,17 +780,20 @@
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -716,31 +802,35 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -751,34 +841,35 @@
       <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="N2" s="6"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="S2" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -791,39 +882,39 @@
       <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -836,21 +927,33 @@
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="11"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
@@ -863,46 +966,72 @@
       <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="T5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
         <v>26</v>
@@ -913,24 +1042,31 @@
       <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
@@ -943,10 +1079,31 @@
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -959,10 +1116,33 @@
       <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
@@ -971,8 +1151,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
         <v>34</v>
@@ -981,8 +1161,8 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
@@ -993,8 +1173,8 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
@@ -1005,8 +1185,8 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1015,8 +1195,8 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>30</v>
@@ -1025,8 +1205,8 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1037,20 +1217,20 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1059,8 +1239,8 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1069,8 +1249,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1081,90 +1261,117 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="9"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="B1:B26"/>
-    <mergeCell ref="A1:A26"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1:B28"/>
+    <mergeCell ref="A1:A28"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="I1:I9"/>
     <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="I1:I7"/>
-    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="Q4:Q9"/>
+    <mergeCell ref="P1:P9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
+++ b/4基线控制-申请基线变更时提交/iRace-基线控制手册.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="功能基线" sheetId="1" r:id="rId1"/>
+    <sheet name="设计基线" sheetId="2" r:id="rId2"/>
+    <sheet name="产品基线" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>iRace-敏捷项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,27 +90,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析基线</t>
+    <t>SP1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理-SprintBacklog</t>
+  </si>
+  <si>
+    <t>iRace-UserStory</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理</t>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理-ProductBacklog</t>
+  </si>
+  <si>
+    <t>iRace-敏捷项目管理-SprintPlan</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint Plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebPrototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,19 +193,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>详细设计基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-sql</t>
+  </si>
+  <si>
     <t>v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SP1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP4-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP7-10</t>
+    <t>产品测试基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-SP2-测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,50 +216,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User Story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iRace-敏捷项目管理-SprintBacklog</t>
-  </si>
-  <si>
-    <t>iRace-UserStory</t>
+    <t>Sprint Backlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI for Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP2 v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PO访谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iRace-敏捷项目管理</t>
+    <t>ER-Model-0419</t>
+  </si>
+  <si>
+    <t>iRace-SP2-测试报告 v1.0</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iRace-敏捷项目管理-ProductBacklog</t>
-  </si>
-  <si>
-    <t>iRace-敏捷项目管理-SprintPlan</t>
-  </si>
-  <si>
-    <t>Product Backlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint Plan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编码基线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概要设计基线</t>
+    <t>v4.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,11 +270,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ER-Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebPrototype</t>
+    <t>CDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-Model&amp;Web-Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-ER-Model&amp;Web-Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,96 +294,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详细设计基线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iRace-sql</t>
-  </si>
-  <si>
     <t>v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品测试基线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iRace-SP2-测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint Backlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KPI for Product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER-Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP2 v2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product Backlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.1</t>
+    <t>iRace-SP3-测试报告 v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-SP3-测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3 v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ER-Model-0419</t>
-  </si>
-  <si>
-    <t>iRace-SP2-测试报告 v1.0</t>
-  </si>
-  <si>
-    <t>测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER-Model&amp;Web-Prototype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iRace-ER-Model&amp;Web-Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iRace-SP2-测试用例 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v1.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRace-SP3-测试用例 v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JBPM6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +352,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -440,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -456,12 +510,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -766,16 +822,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="36.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -789,12 +845,12 @@
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>23</v>
+      <c r="B1" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -802,35 +858,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="I1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -841,35 +872,10 @@
       <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -880,41 +886,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -925,35 +902,12 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
@@ -964,417 +918,735 @@
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>63</v>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="9"/>
+      <c r="F29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:B28"/>
-    <mergeCell ref="A1:A28"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="I1:I9"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="Q4:Q9"/>
-    <mergeCell ref="P1:P9"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B29"/>
+    <mergeCell ref="A1:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A1:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="A1:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>